--- a/DOCUMENTOS/PMOInformatica Plantilla de Product Backlog (4) (version 1).xlsx
+++ b/DOCUMENTOS/PMOInformatica Plantilla de Product Backlog (4) (version 1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\GitHub\CRIALED---APLICACIONES-INFORM-TICAS-II\CRIALED---APLICACIONES-INFORM-TICAS-II\CRIALED\DOCUMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\GitHub\CRIALED---APLICACIONES-INFORM-TICAS-II\CRIALED---APLICACIONES-INFORM-TICAS-II\CRIALED---APLICACIONES-INFORM-TICAS-II\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55DD4FE-7BA7-4420-808B-B3BE9AFA07B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F8FB4C-3CA3-44E1-9254-110285972ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>Columna</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>En proceso</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
   </si>
 </sst>
 </file>
@@ -843,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="48" zoomScaleNormal="48" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +944,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>27</v>
@@ -987,7 +990,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
@@ -1171,7 +1174,7 @@
         <v>84</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>27</v>
@@ -1217,7 +1220,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>27</v>
@@ -1246,7 +1249,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>60</v>
@@ -1275,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>27</v>
@@ -1304,7 +1307,7 @@
         <v>45</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>27</v>
@@ -1333,7 +1336,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>60</v>
@@ -1362,7 +1365,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>67</v>
@@ -1391,7 +1394,7 @@
         <v>44</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>60</v>
@@ -1420,7 +1423,7 @@
         <v>44</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>93</v>
@@ -1449,7 +1452,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>67</v>

--- a/DOCUMENTOS/PMOInformatica Plantilla de Product Backlog (4) (version 1).xlsx
+++ b/DOCUMENTOS/PMOInformatica Plantilla de Product Backlog (4) (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\GitHub\CRIALED---APLICACIONES-INFORM-TICAS-II\CRIALED---APLICACIONES-INFORM-TICAS-II\CRIALED---APLICACIONES-INFORM-TICAS-II\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F8FB4C-3CA3-44E1-9254-110285972ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9141619-D692-4889-8BC0-2E56892FAA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="48" zoomScaleNormal="48" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="48" zoomScaleNormal="48" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>27</v>
@@ -984,7 +984,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>50</v>
@@ -1030,7 +1030,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>25</v>
@@ -1122,13 +1122,13 @@
         <v>79</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>27</v>
